--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ybx1-Notch1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ybx1-Notch1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>132.0687866666667</v>
+        <v>277.649058</v>
       </c>
       <c r="H2">
-        <v>396.20636</v>
+        <v>832.947174</v>
       </c>
       <c r="I2">
-        <v>0.1419125628977714</v>
+        <v>0.2344538273712732</v>
       </c>
       <c r="J2">
-        <v>0.1419125628977714</v>
+        <v>0.2344538273712732</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>45.13108133333333</v>
+        <v>62.58874</v>
       </c>
       <c r="N2">
-        <v>135.393244</v>
+        <v>187.76622</v>
       </c>
       <c r="O2">
-        <v>0.3170330137447531</v>
+        <v>0.4331197020873656</v>
       </c>
       <c r="P2">
-        <v>0.3170330137447531</v>
+        <v>0.4331197020873655</v>
       </c>
       <c r="Q2">
-        <v>5960.407152647983</v>
+        <v>17377.70470240692</v>
       </c>
       <c r="R2">
-        <v>53643.66437383185</v>
+        <v>156399.3423216623</v>
       </c>
       <c r="S2">
-        <v>0.04499096750372231</v>
+        <v>0.1015465718642885</v>
       </c>
       <c r="T2">
-        <v>0.04499096750372231</v>
+        <v>0.1015465718642884</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>132.0687866666667</v>
+        <v>277.649058</v>
       </c>
       <c r="H3">
-        <v>396.20636</v>
+        <v>832.947174</v>
       </c>
       <c r="I3">
-        <v>0.1419125628977714</v>
+        <v>0.2344538273712732</v>
       </c>
       <c r="J3">
-        <v>0.1419125628977714</v>
+        <v>0.2344538273712732</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>17.152367</v>
       </c>
       <c r="O3">
-        <v>0.04016350035062346</v>
+        <v>0.03956530671562308</v>
       </c>
       <c r="P3">
-        <v>0.04016350035062346</v>
+        <v>0.03956530671562306</v>
       </c>
       <c r="Q3">
-        <v>755.0974327171244</v>
+        <v>1587.446180006762</v>
       </c>
       <c r="R3">
-        <v>6795.87689445412</v>
+        <v>14287.01562006086</v>
       </c>
       <c r="S3">
-        <v>0.005699705269702517</v>
+        <v>0.009276237590596169</v>
       </c>
       <c r="T3">
-        <v>0.005699705269702517</v>
+        <v>0.009276237590596164</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>132.0687866666667</v>
+        <v>277.649058</v>
       </c>
       <c r="H4">
-        <v>396.20636</v>
+        <v>832.947174</v>
       </c>
       <c r="I4">
-        <v>0.1419125628977714</v>
+        <v>0.2344538273712732</v>
       </c>
       <c r="J4">
-        <v>0.1419125628977714</v>
+        <v>0.2344538273712732</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.17143466666666</v>
+        <v>16.124321</v>
       </c>
       <c r="N4">
-        <v>42.514304</v>
+        <v>48.372963</v>
       </c>
       <c r="O4">
-        <v>0.09955029901182223</v>
+        <v>0.111581749494894</v>
       </c>
       <c r="P4">
-        <v>0.09955029901182225</v>
+        <v>0.111581749494894</v>
       </c>
       <c r="Q4">
-        <v>1871.604181752604</v>
+        <v>4476.902536539618</v>
       </c>
       <c r="R4">
-        <v>16844.43763577344</v>
+        <v>40292.12282885656</v>
       </c>
       <c r="S4">
-        <v>0.01412743807000718</v>
+        <v>0.02616076823386053</v>
       </c>
       <c r="T4">
-        <v>0.01412743807000718</v>
+        <v>0.02616076823386052</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>132.0687866666667</v>
+        <v>277.649058</v>
       </c>
       <c r="H5">
-        <v>396.20636</v>
+        <v>832.947174</v>
       </c>
       <c r="I5">
-        <v>0.1419125628977714</v>
+        <v>0.2344538273712732</v>
       </c>
       <c r="J5">
-        <v>0.1419125628977714</v>
+        <v>0.2344538273712732</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>32.85839333333333</v>
+        <v>11.37633566666667</v>
       </c>
       <c r="N5">
-        <v>98.57517999999999</v>
+        <v>34.129007</v>
       </c>
       <c r="O5">
-        <v>0.2308208701745229</v>
+        <v>0.07872526455705194</v>
       </c>
       <c r="P5">
-        <v>0.2308208701745229</v>
+        <v>0.07872526455705191</v>
       </c>
       <c r="Q5">
-        <v>4339.568139349422</v>
+        <v>3158.628881341803</v>
       </c>
       <c r="R5">
-        <v>39056.1132541448</v>
+        <v>28427.65993207622</v>
       </c>
       <c r="S5">
-        <v>0.03275638125676032</v>
+        <v>0.01845743958621687</v>
       </c>
       <c r="T5">
-        <v>0.03275638125676032</v>
+        <v>0.01845743958621686</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>132.0687866666667</v>
+        <v>277.649058</v>
       </c>
       <c r="H6">
-        <v>396.20636</v>
+        <v>832.947174</v>
       </c>
       <c r="I6">
-        <v>0.1419125628977714</v>
+        <v>0.2344538273712732</v>
       </c>
       <c r="J6">
-        <v>0.1419125628977714</v>
+        <v>0.2344538273712732</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>28.53112133333333</v>
+        <v>36.54706633333333</v>
       </c>
       <c r="N6">
-        <v>85.59336400000001</v>
+        <v>109.641199</v>
       </c>
       <c r="O6">
-        <v>0.2004230147958612</v>
+        <v>0.2529089814311731</v>
       </c>
       <c r="P6">
-        <v>0.2004230147958612</v>
+        <v>0.2529089814311731</v>
       </c>
       <c r="Q6">
-        <v>3768.070576732783</v>
+        <v>10147.25854011351</v>
       </c>
       <c r="R6">
-        <v>33912.63519059504</v>
+        <v>91325.32686102163</v>
       </c>
       <c r="S6">
-        <v>0.02844254369337863</v>
+        <v>0.0592954786731088</v>
       </c>
       <c r="T6">
-        <v>0.02844254369337863</v>
+        <v>0.05929547867310878</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>132.0687866666667</v>
+        <v>277.649058</v>
       </c>
       <c r="H7">
-        <v>396.20636</v>
+        <v>832.947174</v>
       </c>
       <c r="I7">
-        <v>0.1419125628977714</v>
+        <v>0.2344538273712732</v>
       </c>
       <c r="J7">
-        <v>0.1419125628977714</v>
+        <v>0.2344538273712732</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>15.94503</v>
+        <v>12.15287633333333</v>
       </c>
       <c r="N7">
-        <v>47.83509</v>
+        <v>36.458629</v>
       </c>
       <c r="O7">
-        <v>0.1120093019224172</v>
+        <v>0.08409899571389245</v>
       </c>
       <c r="P7">
-        <v>0.1120093019224172</v>
+        <v>0.08409899571389244</v>
       </c>
       <c r="Q7">
-        <v>2105.8407654636</v>
+        <v>3374.234665940494</v>
       </c>
       <c r="R7">
-        <v>18952.5668891724</v>
+        <v>30368.11199346445</v>
       </c>
       <c r="S7">
-        <v>0.0158955271042005</v>
+        <v>0.01971733142320239</v>
       </c>
       <c r="T7">
-        <v>0.0158955271042005</v>
+        <v>0.01971733142320238</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>754.2038110000001</v>
       </c>
       <c r="I8">
-        <v>0.2701395196338505</v>
+        <v>0.2122895372317457</v>
       </c>
       <c r="J8">
-        <v>0.2701395196338505</v>
+        <v>0.2122895372317457</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>45.13108133333333</v>
+        <v>62.58874</v>
       </c>
       <c r="N8">
-        <v>135.393244</v>
+        <v>187.76622</v>
       </c>
       <c r="O8">
-        <v>0.3170330137447531</v>
+        <v>0.4331197020873656</v>
       </c>
       <c r="P8">
-        <v>0.3170330137447531</v>
+        <v>0.4331197020873655</v>
       </c>
       <c r="Q8">
-        <v>11346.01117871699</v>
+        <v>15734.88874456272</v>
       </c>
       <c r="R8">
-        <v>102114.1006084529</v>
+        <v>141613.9987010644</v>
       </c>
       <c r="S8">
-        <v>0.0856431460410795</v>
+        <v>0.09194678112207839</v>
       </c>
       <c r="T8">
-        <v>0.0856431460410795</v>
+        <v>0.09194678112207838</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>754.2038110000001</v>
       </c>
       <c r="I9">
-        <v>0.2701395196338505</v>
+        <v>0.2122895372317457</v>
       </c>
       <c r="J9">
-        <v>0.2701395196338505</v>
+        <v>0.2122895372317457</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>17.152367</v>
       </c>
       <c r="O9">
-        <v>0.04016350035062346</v>
+        <v>0.03956530671562308</v>
       </c>
       <c r="P9">
-        <v>0.04016350035062346</v>
+        <v>0.03956530671562306</v>
       </c>
       <c r="Q9">
         <v>1437.375617674515</v>
@@ -1013,10 +1013,10 @@
         <v>12936.38055907064</v>
       </c>
       <c r="S9">
-        <v>0.01084974869153141</v>
+        <v>0.008399300653091704</v>
       </c>
       <c r="T9">
-        <v>0.01084974869153141</v>
+        <v>0.008399300653091699</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>754.2038110000001</v>
       </c>
       <c r="I10">
-        <v>0.2701395196338505</v>
+        <v>0.2122895372317457</v>
       </c>
       <c r="J10">
-        <v>0.2701395196338505</v>
+        <v>0.2122895372317457</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.17143466666666</v>
+        <v>16.124321</v>
       </c>
       <c r="N10">
-        <v>42.514304</v>
+        <v>48.372963</v>
       </c>
       <c r="O10">
-        <v>0.09955029901182223</v>
+        <v>0.111581749494894</v>
       </c>
       <c r="P10">
-        <v>0.09955029901182225</v>
+        <v>0.111581749494894</v>
       </c>
       <c r="Q10">
-        <v>3562.716677645838</v>
+        <v>4053.674782662444</v>
       </c>
       <c r="R10">
-        <v>32064.45009881254</v>
+        <v>36483.07304396199</v>
       </c>
       <c r="S10">
-        <v>0.02689246995445984</v>
+        <v>0.02368763796377962</v>
       </c>
       <c r="T10">
-        <v>0.02689246995445984</v>
+        <v>0.02368763796377962</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>754.2038110000001</v>
       </c>
       <c r="I11">
-        <v>0.2701395196338505</v>
+        <v>0.2122895372317457</v>
       </c>
       <c r="J11">
-        <v>0.2701395196338505</v>
+        <v>0.2122895372317457</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>32.85839333333333</v>
+        <v>11.37633566666667</v>
       </c>
       <c r="N11">
-        <v>98.57517999999999</v>
+        <v>34.129007</v>
       </c>
       <c r="O11">
-        <v>0.2308208701745229</v>
+        <v>0.07872526455705194</v>
       </c>
       <c r="P11">
-        <v>0.2308208701745229</v>
+        <v>0.07872526455705191</v>
       </c>
       <c r="Q11">
-        <v>8260.641825112332</v>
+        <v>2860.025238338409</v>
       </c>
       <c r="R11">
-        <v>74345.77642601098</v>
+        <v>25740.22714504568</v>
       </c>
       <c r="S11">
-        <v>0.06235383899041298</v>
+        <v>0.01671254998126331</v>
       </c>
       <c r="T11">
-        <v>0.06235383899041298</v>
+        <v>0.0167125499812633</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>754.2038110000001</v>
       </c>
       <c r="I12">
-        <v>0.2701395196338505</v>
+        <v>0.2122895372317457</v>
       </c>
       <c r="J12">
-        <v>0.2701395196338505</v>
+        <v>0.2122895372317457</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>28.53112133333333</v>
+        <v>36.54706633333333</v>
       </c>
       <c r="N12">
-        <v>85.59336400000001</v>
+        <v>109.641199</v>
       </c>
       <c r="O12">
-        <v>0.2004230147958612</v>
+        <v>0.2529089814311731</v>
       </c>
       <c r="P12">
-        <v>0.2004230147958612</v>
+        <v>0.2529089814311731</v>
       </c>
       <c r="Q12">
-        <v>7172.760147234469</v>
+        <v>9187.9789031566</v>
       </c>
       <c r="R12">
-        <v>64554.84132511022</v>
+        <v>82691.8101284094</v>
       </c>
       <c r="S12">
-        <v>0.05414217694052206</v>
+        <v>0.0536899306297759</v>
       </c>
       <c r="T12">
-        <v>0.05414217694052206</v>
+        <v>0.05368993062977589</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>754.2038110000001</v>
       </c>
       <c r="I13">
-        <v>0.2701395196338505</v>
+        <v>0.2122895372317457</v>
       </c>
       <c r="J13">
-        <v>0.2701395196338505</v>
+        <v>0.2122895372317457</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>15.94503</v>
+        <v>12.15287633333333</v>
       </c>
       <c r="N13">
-        <v>47.83509</v>
+        <v>36.458629</v>
       </c>
       <c r="O13">
-        <v>0.1120093019224172</v>
+        <v>0.08409899571389245</v>
       </c>
       <c r="P13">
-        <v>0.1120093019224172</v>
+        <v>0.08409899571389244</v>
       </c>
       <c r="Q13">
-        <v>4008.600797503111</v>
+        <v>3055.248548403903</v>
       </c>
       <c r="R13">
-        <v>36077.407177528</v>
+        <v>27497.23693563512</v>
       </c>
       <c r="S13">
-        <v>0.0302581390158447</v>
+        <v>0.01785333688175679</v>
       </c>
       <c r="T13">
-        <v>0.0302581390158447</v>
+        <v>0.01785333688175679</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>161.5349043333333</v>
+        <v>179.4609526666667</v>
       </c>
       <c r="H14">
-        <v>484.6047129999999</v>
+        <v>538.3828579999999</v>
       </c>
       <c r="I14">
-        <v>0.1735749441633621</v>
+        <v>0.1515413288972689</v>
       </c>
       <c r="J14">
-        <v>0.1735749441633622</v>
+        <v>0.1515413288972689</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>45.13108133333333</v>
+        <v>62.58874</v>
       </c>
       <c r="N14">
-        <v>135.393244</v>
+        <v>187.76622</v>
       </c>
       <c r="O14">
-        <v>0.3170330137447531</v>
+        <v>0.4331197020873656</v>
       </c>
       <c r="P14">
-        <v>0.3170330137447531</v>
+        <v>0.4331197020873655</v>
       </c>
       <c r="Q14">
-        <v>7290.244905639885</v>
+        <v>11232.23490660631</v>
       </c>
       <c r="R14">
-        <v>65612.20415075897</v>
+        <v>101090.1141594567</v>
       </c>
       <c r="S14">
-        <v>0.05502898765868793</v>
+        <v>0.06563553522590859</v>
       </c>
       <c r="T14">
-        <v>0.05502898765868795</v>
+        <v>0.06563553522590856</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>161.5349043333333</v>
+        <v>179.4609526666667</v>
       </c>
       <c r="H15">
-        <v>484.6047129999999</v>
+        <v>538.3828579999999</v>
       </c>
       <c r="I15">
-        <v>0.1735749441633621</v>
+        <v>0.1515413288972689</v>
       </c>
       <c r="J15">
-        <v>0.1735749441633622</v>
+        <v>0.1515413288972689</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>17.152367</v>
       </c>
       <c r="O15">
-        <v>0.04016350035062346</v>
+        <v>0.03956530671562308</v>
       </c>
       <c r="P15">
-        <v>0.04016350035062346</v>
+        <v>0.03956530671562306</v>
       </c>
       <c r="Q15">
-        <v>923.5686541450743</v>
+        <v>1026.060040769432</v>
       </c>
       <c r="R15">
-        <v>8312.117887305669</v>
+        <v>9234.540366924884</v>
       </c>
       <c r="S15">
-        <v>0.006971377330764642</v>
+        <v>0.005995779157913559</v>
       </c>
       <c r="T15">
-        <v>0.006971377330764644</v>
+        <v>0.005995779157913555</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>161.5349043333333</v>
+        <v>179.4609526666667</v>
       </c>
       <c r="H16">
-        <v>484.6047129999999</v>
+        <v>538.3828579999999</v>
       </c>
       <c r="I16">
-        <v>0.1735749441633621</v>
+        <v>0.1515413288972689</v>
       </c>
       <c r="J16">
-        <v>0.1735749441633622</v>
+        <v>0.1515413288972689</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>14.17143466666666</v>
+        <v>16.124321</v>
       </c>
       <c r="N16">
-        <v>42.514304</v>
+        <v>48.372963</v>
       </c>
       <c r="O16">
-        <v>0.09955029901182223</v>
+        <v>0.111581749494894</v>
       </c>
       <c r="P16">
-        <v>0.09955029901182225</v>
+        <v>0.111581749494894</v>
       </c>
       <c r="Q16">
-        <v>2289.181343146083</v>
+        <v>2893.686007763139</v>
       </c>
       <c r="R16">
-        <v>20602.63208831475</v>
+        <v>26043.17406986825</v>
       </c>
       <c r="S16">
-        <v>0.01727943759242305</v>
+        <v>0.0169092465991384</v>
       </c>
       <c r="T16">
-        <v>0.01727943759242305</v>
+        <v>0.01690924659913839</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>161.5349043333333</v>
+        <v>179.4609526666667</v>
       </c>
       <c r="H17">
-        <v>484.6047129999999</v>
+        <v>538.3828579999999</v>
       </c>
       <c r="I17">
-        <v>0.1735749441633621</v>
+        <v>0.1515413288972689</v>
       </c>
       <c r="J17">
-        <v>0.1735749441633622</v>
+        <v>0.1515413288972689</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>32.85839333333333</v>
+        <v>11.37633566666667</v>
       </c>
       <c r="N17">
-        <v>98.57517999999999</v>
+        <v>34.129007</v>
       </c>
       <c r="O17">
-        <v>0.2308208701745229</v>
+        <v>0.07872526455705194</v>
       </c>
       <c r="P17">
-        <v>0.2308208701745229</v>
+        <v>0.07872526455705191</v>
       </c>
       <c r="Q17">
-        <v>5307.777423647037</v>
+        <v>2041.608036595778</v>
       </c>
       <c r="R17">
-        <v>47769.99681282333</v>
+        <v>18374.472329362</v>
       </c>
       <c r="S17">
-        <v>0.04006471965228148</v>
+        <v>0.01193013120876471</v>
       </c>
       <c r="T17">
-        <v>0.04006471965228148</v>
+        <v>0.01193013120876471</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>161.5349043333333</v>
+        <v>179.4609526666667</v>
       </c>
       <c r="H18">
-        <v>484.6047129999999</v>
+        <v>538.3828579999999</v>
       </c>
       <c r="I18">
-        <v>0.1735749441633621</v>
+        <v>0.1515413288972689</v>
       </c>
       <c r="J18">
-        <v>0.1735749441633622</v>
+        <v>0.1515413288972689</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>28.53112133333333</v>
+        <v>36.54706633333333</v>
       </c>
       <c r="N18">
-        <v>85.59336400000001</v>
+        <v>109.641199</v>
       </c>
       <c r="O18">
-        <v>0.2004230147958612</v>
+        <v>0.2529089814311731</v>
       </c>
       <c r="P18">
-        <v>0.2004230147958612</v>
+        <v>0.2529089814311731</v>
       </c>
       <c r="Q18">
-        <v>4608.771955102726</v>
+        <v>6558.77134135186</v>
       </c>
       <c r="R18">
-        <v>41478.94759592453</v>
+        <v>59028.94207216673</v>
       </c>
       <c r="S18">
-        <v>0.03478841360224432</v>
+        <v>0.03832616313613467</v>
       </c>
       <c r="T18">
-        <v>0.03478841360224433</v>
+        <v>0.03832616313613466</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>161.5349043333333</v>
+        <v>179.4609526666667</v>
       </c>
       <c r="H19">
-        <v>484.6047129999999</v>
+        <v>538.3828579999999</v>
       </c>
       <c r="I19">
-        <v>0.1735749441633621</v>
+        <v>0.1515413288972689</v>
       </c>
       <c r="J19">
-        <v>0.1735749441633622</v>
+        <v>0.1515413288972689</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>15.94503</v>
+        <v>12.15287633333333</v>
       </c>
       <c r="N19">
-        <v>47.83509</v>
+        <v>36.458629</v>
       </c>
       <c r="O19">
-        <v>0.1120093019224172</v>
+        <v>0.08409899571389245</v>
       </c>
       <c r="P19">
-        <v>0.1120093019224172</v>
+        <v>0.08409899571389244</v>
       </c>
       <c r="Q19">
-        <v>2575.67889564213</v>
+        <v>2180.966764420187</v>
       </c>
       <c r="R19">
-        <v>23181.11006077917</v>
+        <v>19628.70087978168</v>
       </c>
       <c r="S19">
-        <v>0.01944200832696074</v>
+        <v>0.01274447356940898</v>
       </c>
       <c r="T19">
-        <v>0.01944200832696074</v>
+        <v>0.01274447356940898</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>117.9780046666667</v>
+        <v>150.8449886666667</v>
       </c>
       <c r="H20">
-        <v>353.934014</v>
+        <v>452.534966</v>
       </c>
       <c r="I20">
-        <v>0.1267715213441695</v>
+        <v>0.1273772912734907</v>
       </c>
       <c r="J20">
-        <v>0.1267715213441695</v>
+        <v>0.1273772912734907</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>45.13108133333333</v>
+        <v>62.58874</v>
       </c>
       <c r="N20">
-        <v>135.393244</v>
+        <v>187.76622</v>
       </c>
       <c r="O20">
-        <v>0.3170330137447531</v>
+        <v>0.4331197020873656</v>
       </c>
       <c r="P20">
-        <v>0.3170330137447531</v>
+        <v>0.4331197020873655</v>
       </c>
       <c r="Q20">
-        <v>5324.474924155713</v>
+        <v>9441.197775960947</v>
       </c>
       <c r="R20">
-        <v>47920.27431740142</v>
+        <v>84970.77998364852</v>
       </c>
       <c r="S20">
-        <v>0.04019075746874935</v>
+        <v>0.0551696144490699</v>
       </c>
       <c r="T20">
-        <v>0.04019075746874935</v>
+        <v>0.05516961444906988</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>117.9780046666667</v>
+        <v>150.8449886666667</v>
       </c>
       <c r="H21">
-        <v>353.934014</v>
+        <v>452.534966</v>
       </c>
       <c r="I21">
-        <v>0.1267715213441695</v>
+        <v>0.1273772912734907</v>
       </c>
       <c r="J21">
-        <v>0.1267715213441695</v>
+        <v>0.1273772912734907</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>17.152367</v>
       </c>
       <c r="O21">
-        <v>0.04016350035062346</v>
+        <v>0.03956530671562308</v>
       </c>
       <c r="P21">
-        <v>0.04016350035062346</v>
+        <v>0.03956530671562306</v>
       </c>
       <c r="Q21">
-        <v>674.5340113234597</v>
+        <v>862.4495352405023</v>
       </c>
       <c r="R21">
-        <v>6070.806101911137</v>
+        <v>7762.045817164521</v>
       </c>
       <c r="S21">
-        <v>0.005091588041955621</v>
+        <v>0.00503972159784092</v>
       </c>
       <c r="T21">
-        <v>0.005091588041955622</v>
+        <v>0.005039721597840918</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>117.9780046666667</v>
+        <v>150.8449886666667</v>
       </c>
       <c r="H22">
-        <v>353.934014</v>
+        <v>452.534966</v>
       </c>
       <c r="I22">
-        <v>0.1267715213441695</v>
+        <v>0.1273772912734907</v>
       </c>
       <c r="J22">
-        <v>0.1267715213441695</v>
+        <v>0.1273772912734907</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>14.17143466666666</v>
+        <v>16.124321</v>
       </c>
       <c r="N22">
-        <v>42.514304</v>
+        <v>48.372963</v>
       </c>
       <c r="O22">
-        <v>0.09955029901182223</v>
+        <v>0.111581749494894</v>
       </c>
       <c r="P22">
-        <v>0.09955029901182225</v>
+        <v>0.111581749494894</v>
       </c>
       <c r="Q22">
-        <v>1671.917585237361</v>
+        <v>2432.273018502695</v>
       </c>
       <c r="R22">
-        <v>15047.25826713625</v>
+        <v>21890.45716652426</v>
       </c>
       <c r="S22">
-        <v>0.01262014285599568</v>
+        <v>0.01421298100621679</v>
       </c>
       <c r="T22">
-        <v>0.01262014285599568</v>
+        <v>0.01421298100621679</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>117.9780046666667</v>
+        <v>150.8449886666667</v>
       </c>
       <c r="H23">
-        <v>353.934014</v>
+        <v>452.534966</v>
       </c>
       <c r="I23">
-        <v>0.1267715213441695</v>
+        <v>0.1273772912734907</v>
       </c>
       <c r="J23">
-        <v>0.1267715213441695</v>
+        <v>0.1273772912734907</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>32.85839333333333</v>
+        <v>11.37633566666667</v>
       </c>
       <c r="N23">
-        <v>98.57517999999999</v>
+        <v>34.129007</v>
       </c>
       <c r="O23">
-        <v>0.2308208701745229</v>
+        <v>0.07872526455705194</v>
       </c>
       <c r="P23">
-        <v>0.2308208701745229</v>
+        <v>0.07872526455705191</v>
       </c>
       <c r="Q23">
-        <v>3876.567682019169</v>
+        <v>1716.063224706529</v>
       </c>
       <c r="R23">
-        <v>34889.10913817251</v>
+        <v>15444.56902235876</v>
       </c>
       <c r="S23">
-        <v>0.02926151287000931</v>
+        <v>0.01002781095406622</v>
       </c>
       <c r="T23">
-        <v>0.02926151287000931</v>
+        <v>0.01002781095406622</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>117.9780046666667</v>
+        <v>150.8449886666667</v>
       </c>
       <c r="H24">
-        <v>353.934014</v>
+        <v>452.534966</v>
       </c>
       <c r="I24">
-        <v>0.1267715213441695</v>
+        <v>0.1273772912734907</v>
       </c>
       <c r="J24">
-        <v>0.1267715213441695</v>
+        <v>0.1273772912734907</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>28.53112133333333</v>
+        <v>36.54706633333333</v>
       </c>
       <c r="N24">
-        <v>85.59336400000001</v>
+        <v>109.641199</v>
       </c>
       <c r="O24">
-        <v>0.2004230147958612</v>
+        <v>0.2529089814311731</v>
       </c>
       <c r="P24">
-        <v>0.2004230147958612</v>
+        <v>0.2529089814311731</v>
       </c>
       <c r="Q24">
-        <v>3366.044765809233</v>
+        <v>5512.941806851582</v>
       </c>
       <c r="R24">
-        <v>30294.4028922831</v>
+        <v>49616.47626166423</v>
       </c>
       <c r="S24">
-        <v>0.02540793049805632</v>
+        <v>0.03221486099344039</v>
       </c>
       <c r="T24">
-        <v>0.02540793049805633</v>
+        <v>0.03221486099344039</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>117.9780046666667</v>
+        <v>150.8449886666667</v>
       </c>
       <c r="H25">
-        <v>353.934014</v>
+        <v>452.534966</v>
       </c>
       <c r="I25">
-        <v>0.1267715213441695</v>
+        <v>0.1273772912734907</v>
       </c>
       <c r="J25">
-        <v>0.1267715213441695</v>
+        <v>0.1273772912734907</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>15.94503</v>
+        <v>12.15287633333333</v>
       </c>
       <c r="N25">
-        <v>47.83509</v>
+        <v>36.458629</v>
       </c>
       <c r="O25">
-        <v>0.1120093019224172</v>
+        <v>0.08409899571389245</v>
       </c>
       <c r="P25">
-        <v>0.1120093019224172</v>
+        <v>0.08409899571389244</v>
       </c>
       <c r="Q25">
-        <v>1881.16282375014</v>
+        <v>1833.200492769068</v>
       </c>
       <c r="R25">
-        <v>16930.46541375126</v>
+        <v>16498.80443492161</v>
       </c>
       <c r="S25">
-        <v>0.01419958960940324</v>
+        <v>0.01071230227285653</v>
       </c>
       <c r="T25">
-        <v>0.01419958960940324</v>
+        <v>0.01071230227285653</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>105.1932193333333</v>
+        <v>109.6384356666667</v>
       </c>
       <c r="H26">
-        <v>315.579658</v>
+        <v>328.915307</v>
       </c>
       <c r="I26">
-        <v>0.1130338192077033</v>
+        <v>0.09258144455526698</v>
       </c>
       <c r="J26">
-        <v>0.1130338192077033</v>
+        <v>0.09258144455526697</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>45.13108133333333</v>
+        <v>62.58874</v>
       </c>
       <c r="N26">
-        <v>135.393244</v>
+        <v>187.76622</v>
       </c>
       <c r="O26">
-        <v>0.3170330137447531</v>
+        <v>0.4331197020873656</v>
       </c>
       <c r="P26">
-        <v>0.3170330137447531</v>
+        <v>0.4331197020873655</v>
       </c>
       <c r="Q26">
-        <v>4747.483737447839</v>
+        <v>6862.131543947727</v>
       </c>
       <c r="R26">
-        <v>42727.35363703055</v>
+        <v>61759.18389552954</v>
       </c>
       <c r="S26">
-        <v>0.03583545235849772</v>
+        <v>0.04009884768459519</v>
       </c>
       <c r="T26">
-        <v>0.03583545235849773</v>
+        <v>0.04009884768459518</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>105.1932193333333</v>
+        <v>109.6384356666667</v>
       </c>
       <c r="H27">
-        <v>315.579658</v>
+        <v>328.915307</v>
       </c>
       <c r="I27">
-        <v>0.1130338192077033</v>
+        <v>0.09258144455526698</v>
       </c>
       <c r="J27">
-        <v>0.1130338192077033</v>
+        <v>0.09258144455526697</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>17.152367</v>
       </c>
       <c r="O27">
-        <v>0.04016350035062346</v>
+        <v>0.03956530671562308</v>
       </c>
       <c r="P27">
-        <v>0.04016350035062346</v>
+        <v>0.03956530671562306</v>
       </c>
       <c r="Q27">
-        <v>601.4375679722762</v>
+        <v>626.852895286852</v>
       </c>
       <c r="R27">
-        <v>5412.938111750485</v>
+        <v>5641.676057581668</v>
       </c>
       <c r="S27">
-        <v>0.004539833837380898</v>
+        <v>0.00366301325000459</v>
       </c>
       <c r="T27">
-        <v>0.004539833837380899</v>
+        <v>0.003663013250004588</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>105.1932193333333</v>
+        <v>109.6384356666667</v>
       </c>
       <c r="H28">
-        <v>315.579658</v>
+        <v>328.915307</v>
       </c>
       <c r="I28">
-        <v>0.1130338192077033</v>
+        <v>0.09258144455526698</v>
       </c>
       <c r="J28">
-        <v>0.1130338192077033</v>
+        <v>0.09258144455526697</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>14.17143466666666</v>
+        <v>16.124321</v>
       </c>
       <c r="N28">
-        <v>42.514304</v>
+        <v>48.372963</v>
       </c>
       <c r="O28">
-        <v>0.09955029901182223</v>
+        <v>0.111581749494894</v>
       </c>
       <c r="P28">
-        <v>0.09955029901182225</v>
+        <v>0.111581749494894</v>
       </c>
       <c r="Q28">
-        <v>1490.73883515867</v>
+        <v>1767.845330627182</v>
       </c>
       <c r="R28">
-        <v>13416.64951642803</v>
+        <v>15910.60797564464</v>
       </c>
       <c r="S28">
-        <v>0.01125255050057511</v>
+        <v>0.01033039955424122</v>
       </c>
       <c r="T28">
-        <v>0.01125255050057512</v>
+        <v>0.01033039955424122</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>105.1932193333333</v>
+        <v>109.6384356666667</v>
       </c>
       <c r="H29">
-        <v>315.579658</v>
+        <v>328.915307</v>
       </c>
       <c r="I29">
-        <v>0.1130338192077033</v>
+        <v>0.09258144455526698</v>
       </c>
       <c r="J29">
-        <v>0.1130338192077033</v>
+        <v>0.09258144455526697</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>32.85839333333333</v>
+        <v>11.37633566666667</v>
       </c>
       <c r="N29">
-        <v>98.57517999999999</v>
+        <v>34.129007</v>
       </c>
       <c r="O29">
-        <v>0.2308208701745229</v>
+        <v>0.07872526455705194</v>
       </c>
       <c r="P29">
-        <v>0.2308208701745229</v>
+        <v>0.07872526455705191</v>
       </c>
       <c r="Q29">
-        <v>3456.480176854271</v>
+        <v>1247.283646112239</v>
       </c>
       <c r="R29">
-        <v>31108.32159168844</v>
+        <v>11225.55281501015</v>
       </c>
       <c r="S29">
-        <v>0.02609056450867176</v>
+        <v>0.007288498715687429</v>
       </c>
       <c r="T29">
-        <v>0.02609056450867177</v>
+        <v>0.007288498715687425</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>105.1932193333333</v>
+        <v>109.6384356666667</v>
       </c>
       <c r="H30">
-        <v>315.579658</v>
+        <v>328.915307</v>
       </c>
       <c r="I30">
-        <v>0.1130338192077033</v>
+        <v>0.09258144455526698</v>
       </c>
       <c r="J30">
-        <v>0.1130338192077033</v>
+        <v>0.09258144455526697</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>28.53112133333333</v>
+        <v>36.54706633333333</v>
       </c>
       <c r="N30">
-        <v>85.59336400000001</v>
+        <v>109.641199</v>
       </c>
       <c r="O30">
-        <v>0.2004230147958612</v>
+        <v>0.2529089814311731</v>
       </c>
       <c r="P30">
-        <v>0.2004230147958612</v>
+        <v>0.2529089814311731</v>
       </c>
       <c r="Q30">
-        <v>3001.280504243279</v>
+        <v>4006.963180992566</v>
       </c>
       <c r="R30">
-        <v>27011.52453818951</v>
+        <v>36062.66862893309</v>
       </c>
       <c r="S30">
-        <v>0.02265457881949821</v>
+        <v>0.0234146788418992</v>
       </c>
       <c r="T30">
-        <v>0.02265457881949822</v>
+        <v>0.02341467884189919</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>105.1932193333333</v>
+        <v>109.6384356666667</v>
       </c>
       <c r="H31">
-        <v>315.579658</v>
+        <v>328.915307</v>
       </c>
       <c r="I31">
-        <v>0.1130338192077033</v>
+        <v>0.09258144455526698</v>
       </c>
       <c r="J31">
-        <v>0.1130338192077033</v>
+        <v>0.09258144455526697</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>15.94503</v>
+        <v>12.15287633333333</v>
       </c>
       <c r="N31">
-        <v>47.83509</v>
+        <v>36.458629</v>
       </c>
       <c r="O31">
-        <v>0.1120093019224172</v>
+        <v>0.08409899571389245</v>
       </c>
       <c r="P31">
-        <v>0.1120093019224172</v>
+        <v>0.08409899571389244</v>
       </c>
       <c r="Q31">
-        <v>1677.30903806658</v>
+        <v>1332.422350037123</v>
       </c>
       <c r="R31">
-        <v>15095.78134259922</v>
+        <v>11991.8011503341</v>
       </c>
       <c r="S31">
-        <v>0.01266083918307955</v>
+        <v>0.00778600650883937</v>
       </c>
       <c r="T31">
-        <v>0.01266083918307956</v>
+        <v>0.007786006508839367</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>162.458735</v>
+        <v>215.2429806666667</v>
       </c>
       <c r="H32">
-        <v>487.376205</v>
+        <v>645.728942</v>
       </c>
       <c r="I32">
-        <v>0.1745676327531432</v>
+        <v>0.1817565706709545</v>
       </c>
       <c r="J32">
-        <v>0.1745676327531432</v>
+        <v>0.1817565706709545</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>45.13108133333333</v>
+        <v>62.58874</v>
       </c>
       <c r="N32">
-        <v>135.393244</v>
+        <v>187.76622</v>
       </c>
       <c r="O32">
-        <v>0.3170330137447531</v>
+        <v>0.4331197020873656</v>
       </c>
       <c r="P32">
-        <v>0.3170330137447531</v>
+        <v>0.4331197020873655</v>
       </c>
       <c r="Q32">
-        <v>7331.938382595447</v>
+        <v>13471.78695377103</v>
       </c>
       <c r="R32">
-        <v>65987.44544335903</v>
+        <v>121246.0825839392</v>
       </c>
       <c r="S32">
-        <v>0.05534370271401625</v>
+        <v>0.07872235174142503</v>
       </c>
       <c r="T32">
-        <v>0.05534370271401626</v>
+        <v>0.07872235174142501</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>162.458735</v>
+        <v>215.2429806666667</v>
       </c>
       <c r="H33">
-        <v>487.376205</v>
+        <v>645.728942</v>
       </c>
       <c r="I33">
-        <v>0.1745676327531432</v>
+        <v>0.1817565706709545</v>
       </c>
       <c r="J33">
-        <v>0.1745676327531432</v>
+        <v>0.1817565706709545</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>17.152367</v>
       </c>
       <c r="O33">
-        <v>0.04016350035062346</v>
+        <v>0.03956530671562308</v>
       </c>
       <c r="P33">
-        <v>0.04016350035062346</v>
+        <v>0.03956530671562306</v>
       </c>
       <c r="Q33">
-        <v>928.8506150252483</v>
+        <v>1230.642199522857</v>
       </c>
       <c r="R33">
-        <v>8359.655535227235</v>
+        <v>11075.77979570571</v>
       </c>
       <c r="S33">
-        <v>0.007011247179288373</v>
+        <v>0.007191254466176137</v>
       </c>
       <c r="T33">
-        <v>0.007011247179288375</v>
+        <v>0.007191254466176134</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>162.458735</v>
+        <v>215.2429806666667</v>
       </c>
       <c r="H34">
-        <v>487.376205</v>
+        <v>645.728942</v>
       </c>
       <c r="I34">
-        <v>0.1745676327531432</v>
+        <v>0.1817565706709545</v>
       </c>
       <c r="J34">
-        <v>0.1745676327531432</v>
+        <v>0.1817565706709545</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>14.17143466666666</v>
+        <v>16.124321</v>
       </c>
       <c r="N34">
-        <v>42.514304</v>
+        <v>48.372963</v>
       </c>
       <c r="O34">
-        <v>0.09955029901182223</v>
+        <v>0.111581749494894</v>
       </c>
       <c r="P34">
-        <v>0.09955029901182225</v>
+        <v>0.111581749494894</v>
       </c>
       <c r="Q34">
-        <v>2302.273349081813</v>
+        <v>3470.646913266127</v>
       </c>
       <c r="R34">
-        <v>20720.46014173632</v>
+        <v>31235.82221939514</v>
       </c>
       <c r="S34">
-        <v>0.01737826003836138</v>
+        <v>0.02028071613765745</v>
       </c>
       <c r="T34">
-        <v>0.01737826003836138</v>
+        <v>0.02028071613765744</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>162.458735</v>
+        <v>215.2429806666667</v>
       </c>
       <c r="H35">
-        <v>487.376205</v>
+        <v>645.728942</v>
       </c>
       <c r="I35">
-        <v>0.1745676327531432</v>
+        <v>0.1817565706709545</v>
       </c>
       <c r="J35">
-        <v>0.1745676327531432</v>
+        <v>0.1817565706709545</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>32.85839333333333</v>
+        <v>11.37633566666667</v>
       </c>
       <c r="N35">
-        <v>98.57517999999999</v>
+        <v>34.129007</v>
       </c>
       <c r="O35">
-        <v>0.2308208701745229</v>
+        <v>0.07872526455705194</v>
       </c>
       <c r="P35">
-        <v>0.2308208701745229</v>
+        <v>0.07872526455705191</v>
       </c>
       <c r="Q35">
-        <v>5338.133015065767</v>
+        <v>2448.676397957844</v>
       </c>
       <c r="R35">
-        <v>48043.19713559189</v>
+        <v>22038.0875816206</v>
       </c>
       <c r="S35">
-        <v>0.04029385289638706</v>
+        <v>0.0143088341110534</v>
       </c>
       <c r="T35">
-        <v>0.04029385289638706</v>
+        <v>0.0143088341110534</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>162.458735</v>
+        <v>215.2429806666667</v>
       </c>
       <c r="H36">
-        <v>487.376205</v>
+        <v>645.728942</v>
       </c>
       <c r="I36">
-        <v>0.1745676327531432</v>
+        <v>0.1817565706709545</v>
       </c>
       <c r="J36">
-        <v>0.1745676327531432</v>
+        <v>0.1817565706709545</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>28.53112133333333</v>
+        <v>36.54706633333333</v>
       </c>
       <c r="N36">
-        <v>85.59336400000001</v>
+        <v>109.641199</v>
       </c>
       <c r="O36">
-        <v>0.2004230147958612</v>
+        <v>0.2529089814311731</v>
       </c>
       <c r="P36">
-        <v>0.2004230147958612</v>
+        <v>0.2529089814311731</v>
       </c>
       <c r="Q36">
-        <v>4635.129879944848</v>
+        <v>7866.49949220905</v>
       </c>
       <c r="R36">
-        <v>41716.16891950362</v>
+        <v>70798.49542988146</v>
       </c>
       <c r="S36">
-        <v>0.03498737124216169</v>
+        <v>0.04596786915681413</v>
       </c>
       <c r="T36">
-        <v>0.0349873712421617</v>
+        <v>0.04596786915681413</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>162.458735</v>
+        <v>215.2429806666667</v>
       </c>
       <c r="H37">
-        <v>487.376205</v>
+        <v>645.728942</v>
       </c>
       <c r="I37">
-        <v>0.1745676327531432</v>
+        <v>0.1817565706709545</v>
       </c>
       <c r="J37">
-        <v>0.1745676327531432</v>
+        <v>0.1817565706709545</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>15.94503</v>
+        <v>12.15287633333333</v>
       </c>
       <c r="N37">
-        <v>47.83509</v>
+        <v>36.458629</v>
       </c>
       <c r="O37">
-        <v>0.1120093019224172</v>
+        <v>0.08409899571389245</v>
       </c>
       <c r="P37">
-        <v>0.1120093019224172</v>
+        <v>0.08409899571389244</v>
       </c>
       <c r="Q37">
-        <v>2590.409403337051</v>
+        <v>2615.821325660057</v>
       </c>
       <c r="R37">
-        <v>23313.68463003345</v>
+        <v>23542.39193094052</v>
       </c>
       <c r="S37">
-        <v>0.01955319868292846</v>
+        <v>0.0152855450578284</v>
       </c>
       <c r="T37">
-        <v>0.01955319868292846</v>
+        <v>0.01528554505782839</v>
       </c>
     </row>
   </sheetData>
